--- a/Results/Lap Times.xlsx
+++ b/Results/Lap Times.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliona\Desktop\FYP\FYP-AIComparision\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571AA360-54B5-4AF5-A509-11B245254DC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9F5C86-C6C9-4E43-8720-4785C952FD23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,10 +91,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -148,13 +149,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IE"/>
-              <a:t>Lap</a:t>
+              <a:t>Lap Times</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-IE" baseline="0"/>
-              <a:t> Times</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -190,8 +186,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -208,7 +204,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -231,12 +227,26 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.1921296296296296E-3</c:v>
                 </c:pt>
@@ -258,10 +268,49 @@
                 <c:pt idx="6">
                   <c:v>7.7546296296296304E-4</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5046296296296294E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4930555555555556E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3425925925925925E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.423611111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3773148148148147E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4004629629629629E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4699074074074074E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3541666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.261574074074074E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1458333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6064814814814808E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1111111111111111E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3DCB-4A70-94C0-F2DECDE1B1AB}"/>
@@ -283,7 +332,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -306,12 +355,26 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$11</c:f>
+              <c:f>Sheet1!$B$5:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.4930555555555556E-3</c:v>
                 </c:pt>
@@ -328,15 +391,54 @@
                   <c:v>1.4004629629629629E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1296296296296298E-3</c:v>
+                  <c:v>2.0138888888888888E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3425925925925925E-3</c:v>
+                  <c:v>2.0370370370370373E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="h:mm\ AM/PM">
+                  <c:v>1.9444444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="h:mm\ AM/PM">
+                  <c:v>2.0486111111111113E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="h:mm\ AM/PM">
+                  <c:v>2.2222222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="h:mm\ AM/PM">
+                  <c:v>1.689814814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="h:mm\ AM/PM">
+                  <c:v>1.9212962962962962E-3</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="h:mm\ AM/PM">
+                  <c:v>1.9097222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="h:mm\ AM/PM">
+                  <c:v>1.6319444444444445E-3</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="h:mm\ AM/PM">
+                  <c:v>2.1064814814814813E-3</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="h:mm\ AM/PM">
+                  <c:v>1.8402777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="h:mm\ AM/PM">
+                  <c:v>2.0370370370370373E-3</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="h:mm\ AM/PM">
+                  <c:v>1.8750000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="h:mm\ AM/PM">
+                  <c:v>2.0023148148148148E-3</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="h:mm\ AM/PM">
+                  <c:v>1.9791666666666668E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3DCB-4A70-94C0-F2DECDE1B1AB}"/>
@@ -344,6 +446,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -351,28 +454,125 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="868278527"/>
         <c:axId val="868274367"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="868278527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Lap number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="868274367"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="868274367"/>
         <c:scaling>
@@ -394,14 +594,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Time Taken</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -427,7 +688,7 @@
         </c:txPr>
         <c:crossAx val="868278527"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -553,7 +814,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -580,8 +841,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -682,7 +943,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -714,10 +975,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -757,22 +1018,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -877,8 +1139,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1010,19 +1272,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1036,6 +1299,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1059,16 +1333,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2931</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>307731</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>49457</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1359,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,8 +1714,8 @@
         <v>9.0277777777777784E-4</v>
       </c>
       <c r="B10" s="2">
-        <f>TIME(0,3,4)</f>
-        <v>2.1296296296296298E-3</v>
+        <f>TIME(0,2,54)</f>
+        <v>2.0138888888888888E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1450,8 +1724,148 @@
         <v>7.7546296296296304E-4</v>
       </c>
       <c r="B11" s="2">
+        <f>TIME(0,2,56)</f>
+        <v>2.0370370370370373E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f>TIME(0,2,10)</f>
+        <v>1.5046296296296294E-3</v>
+      </c>
+      <c r="B12" s="3">
+        <f>TIME(0,2,48)</f>
+        <v>1.9444444444444442E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f>TIME(0,2,9)</f>
+        <v>1.4930555555555556E-3</v>
+      </c>
+      <c r="B13" s="3">
+        <f>TIME(0,2,57)</f>
+        <v>2.0486111111111113E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <f>TIME(0,1,56)</f>
         <v>1.3425925925925925E-3</v>
+      </c>
+      <c r="B14" s="3">
+        <f>TIME(0,3,12)</f>
+        <v>2.2222222222222222E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f>TIME(0,2,3)</f>
+        <v>1.423611111111111E-3</v>
+      </c>
+      <c r="B15" s="3">
+        <f>TIME(0,2,26)</f>
+        <v>1.689814814814815E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f>TIME(0,1,59)</f>
+        <v>1.3773148148148147E-3</v>
+      </c>
+      <c r="B16" s="3">
+        <f>TIME(0,2,46)</f>
+        <v>1.9212962962962962E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>TIME(0,2,1)</f>
+        <v>1.4004629629629629E-3</v>
+      </c>
+      <c r="B17" s="3">
+        <f>TIME(0,2,45)</f>
+        <v>1.9097222222222222E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>TIME(0,2,7)</f>
+        <v>1.4699074074074074E-3</v>
+      </c>
+      <c r="B18" s="3">
+        <f>TIME(0,2,21)</f>
+        <v>1.6319444444444445E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f>TIME(0,1,57)</f>
+        <v>1.3541666666666667E-3</v>
+      </c>
+      <c r="B19" s="3">
+        <f>TIME(0,3,2)</f>
+        <v>2.1064814814814813E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f>TIME(0,1,30)</f>
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="B20" s="3">
+        <f>TIME(0,2,39)</f>
+        <v>1.8402777777777777E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f>TIME(0,1,49)</f>
+        <v>1.261574074074074E-3</v>
+      </c>
+      <c r="B21" s="3">
+        <f>TIME(0,2,56)</f>
+        <v>2.0370370370370373E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f>TIME(0,1,39)</f>
+        <v>1.1458333333333333E-3</v>
+      </c>
+      <c r="B22" s="3">
+        <f>TIME(0,2,42)</f>
+        <v>1.8750000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f>TIME(0,1,23)</f>
+        <v>9.6064814814814808E-4</v>
+      </c>
+      <c r="B23" s="3">
+        <f>TIME(0,2,53)</f>
+        <v>2.0023148148148148E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f>TIME(0,1,36)</f>
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="B24" s="3">
+        <f>TIME(0,2,51)</f>
+        <v>1.9791666666666668E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f xml:space="preserve"> AVERAGE(A5:A24)</f>
+        <v>1.2083333333333334E-3</v>
+      </c>
+      <c r="B26" s="2">
+        <f xml:space="preserve"> AVERAGE(B5:B24)</f>
+        <v>1.887152777777778E-3</v>
       </c>
     </row>
   </sheetData>
